--- a/biology/Zoologie/Antirrhea_philoctetes/Antirrhea_philoctetes.xlsx
+++ b/biology/Zoologie/Antirrhea_philoctetes/Antirrhea_philoctetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea philoctetes est une espèce de lépidoptère de la famille des Nymphalidés et du genre Antirrhea.
 </t>
@@ -511,87 +523,95 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Antirrhea philoctetes a été décrit par Carl von Linné en 1758 sous le nom initial de Papilio philoctetes[1].
-Nom vernaculaire
-Antirrhea philoctetes se nomme Common Brown Morpho en anglais et Antirrhea philoctetes tomasia Northern Antirrhea[2],[3]. 
-Sous-espèces
-Antirrhea philoctetes philoctetes
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea philoctetes a été décrit par Carl von Linné en 1758 sous le nom initial de Papilio philoctetes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea philoctetes se nomme Common Brown Morpho en anglais et Antirrhea philoctetes tomasia Northern Antirrhea,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Antirrhea philoctetes philoctetes
 Antirrhea philoctetes avernus Hopffer, 1874; présent au Pérou, en Bolivie, au Surinam, en Guyana et en Guyane.
 Antirrhea philoctetes casta Bates, 1865; présent au Guatemala.
 Antirrhea philoctetes intermedia Salazar, Constantino &amp; López, 1998; présent en Colombie et au Pérou.
 Antirrhea philoctetes lindigii C. &amp; R. Felder, 1862; présent en Colombie.
-Antirrhea philoctetes murena Staudinger, [1886]; présent au Brésil.
+Antirrhea philoctetes murena Staudinger, ; présent au Brésil.
 Antirrhea philoctetes philaretes C. &amp; R. Felder, 1862; présent en Colombie.
 Antirrhea philoctetes theodori Fruhstorfer, 1907; présent au Brésil.
 Antirrhea philoctetes tomasia Butler, 1875; présent au Costa Rica et à Panama.
 Antirrhea philoctetes ulei Strand, 1912; présent au Venezuela.
-Antirrhea philoctetes ssp; présent au Venezuela[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Antirrhea_philoctetes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirrhea philoctetes est un grand papillon d'une envergure d'environ 95 mm à 105 mm aux ailes antérieures à bord externe concave et aux ailes postérieures formant trois pointes en n3, n4 et n5[4]. Le dessus est marron. Les ailes antérieures sont barrées d'un pointillé blanc allant du 1/3 externe du bord costal au bord interne. Les ailes postérieures sont ornées d'une ligne postdiscale de taches bleues ovales formant une bande.
-Le revers est marron avec une ligne blanche dans l'aire postdiscale; elle s’élargit à l'aile postérieure en n6 et renferme un ocelles marron à noir.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Antirrhea_philoctetes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de la chenille d' Antirrhea philoctetes lindigii est Geonoma longivaginata[1].
-</t>
+Antirrhea philoctetes ssp; présent au Venezuela.</t>
         </is>
       </c>
     </row>
@@ -616,16 +636,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea philoctetes est un grand papillon d'une envergure d'environ 95 mm à 105 mm aux ailes antérieures à bord externe concave et aux ailes postérieures formant trois pointes en n3, n4 et n5. Le dessus est marron. Les ailes antérieures sont barrées d'un pointillé blanc allant du 1/3 externe du bord costal au bord interne. Les ailes postérieures sont ornées d'une ligne postdiscale de taches bleues ovales formant une bande.
+Le revers est marron avec une ligne blanche dans l'aire postdiscale; elle s’élargit à l'aile postérieure en n6 et renferme un ocelles marron à noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de la chenille d' Antirrhea philoctetes lindigii est Geonoma longivaginata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirrhea philoctetes est présent à Panama, au Costa Rica, au Guatemala, au Venezuela, en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane[1].
-Biotope
-Antirrhea philoctetes réside en forêt[4].
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea philoctetes est présent à Panama, au Costa Rica, au Guatemala, au Venezuela, en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea philoctetes réside en forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_philoctetes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Antirrhea philoctetes, sur Wikimedia CommonsAntirrhea philoctetes, sur Wikispecies
 </t>
